--- a/tv_slots/slot_filling.xlsx
+++ b/tv_slots/slot_filling.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/83726ec0a80c1546/zzz Desktop copy/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A1570D50-2635-4C2F-AF93-46421EC457C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12340EE4-B277-4185-B86E-8547C91293C5}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{A1570D50-2635-4C2F-AF93-46421EC457C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{714953E8-274A-4693-8CB2-F042886FF9F4}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{324EC751-9C60-40DD-8432-DBCA825DD949}"/>
   </bookViews>
@@ -27,12 +22,12 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Model 1'!$D$6:$D$8</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Model 1'!$D$6:$D$8</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Model 1'!$B$11:$B$12</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Model 1'!$N$35</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Model 1'!$M$4:$M$34</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Model 1'!$N$35</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Model 1'!$N$35</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Model 1'!$M$4:$M$34</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Model 1'!$N$35</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Model 1'!$B$11:$B$12</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Model 1'!$D$6:$D$8</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Model 1'!$D$6:$D$8</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Model 1'!$N$35</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -46,18 +41,18 @@
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">4</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Model 1'!$B$6:$B$8</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Model 1'!$C$6:$C$8</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">"integer"</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Model 1'!$C$12</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">"binary"</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Model 1'!$C$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Model 1'!$C$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Model 1'!$C$12</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Model 1'!$B$6:$B$8</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Model 1'!$C$6:$C$8</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Model 1'!$C$11</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
@@ -894,7 +889,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,6 +2362,7 @@
     <sortCondition ref="L4:L34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
